--- a/Übungen/Prüfwerte.xlsx
+++ b/Übungen/Prüfwerte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Michael\Bildung\Studium\FH Beuth\Wintersemester_2023\Wirtschaftsstatistik\Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54792F57-7E95-485D-801C-6A94D7F14CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9264E-FB8F-4820-9185-8F0AA6392698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7C6F8C9A-58B4-4058-B475-47303243F566}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>klasse</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>mi*hi</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>xi * hi</t>
   </si>
 </sst>
 </file>
@@ -136,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -282,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F5B483-B874-43DC-89D8-2E92B27A785E}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -443,7 +455,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -460,7 +472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -479,7 +491,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -498,7 +510,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -517,7 +529,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -536,7 +548,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -555,7 +567,7 @@
         <v>70400</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -574,7 +586,7 @@
         <v>92400</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="str">
         <f xml:space="preserve"> "n:  " &amp; SUM(E3:E8)</f>
         <v>n:  265</v>
@@ -584,10 +596,232 @@
         <v>370050</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" s="2">
         <f>F9/265</f>
         <v>1396.4150943396226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D19" si="1">B15*C15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>SUM(C14:C19)</f>
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D14:D19)</f>
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <f>MEDIAN(B14:B19,D14:D19)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>B22*C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D27" si="2">B23*C23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>SUM(C22:C27)</f>
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D22:D27)</f>
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <f>MEDIAN(B22:B27,D22:D27)</f>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
